--- a/DepartmentCreation.xlsx
+++ b/DepartmentCreation.xlsx
@@ -423,7 +423,7 @@
     <t>ACN DOP DEP123456</t>
   </si>
   <si>
-    <t>ACN DOP DEP DevOps</t>
+    <t>ACN DOP DEP DevOps Sample123456</t>
   </si>
 </sst>
 </file>
@@ -17035,7 +17035,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="83" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DepartmentCreation.xlsx
+++ b/DepartmentCreation.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\Desktop\HCM POC\Repositories\ManageDepartmentConfig\ManageDepartment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\Desktop\managedept\HCM_MDConfiguration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Manage Department" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <definedName name="YesNo">[8]Hidden!$A$1:$A$2</definedName>
     <definedName name="YN">[1]List!$B$24:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Task Name :</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Standard Working Hours</t>
   </si>
   <si>
-    <t>Hours Frequency</t>
-  </si>
-  <si>
     <t>France - Specific Work Accident Rate</t>
   </si>
   <si>
@@ -360,7 +357,13 @@
     <t>Active</t>
   </si>
   <si>
-    <t>ACN US Location1</t>
+    <t>ACN US Location2</t>
+  </si>
+  <si>
+    <t>ACN US Location3</t>
+  </si>
+  <si>
+    <t>ACN US Location4</t>
   </si>
   <si>
     <t>Navigator &gt; My Workforce  &gt; Workforce Structures &gt; Organizations &gt; Manage Departments</t>
@@ -414,23 +417,29 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>09:00</t>
+    <t>Standard Working Hours Frequency</t>
   </si>
   <si>
-    <t>3/8/2016</t>
+    <t>ACN US Location1</t>
   </si>
   <si>
-    <t>ACN DOP DEP123456</t>
+    <t>ACN DOP DEP1</t>
   </si>
   <si>
-    <t>ACN DOP DEP DevOps Sample123456</t>
+    <t>ACN DOP DEP2</t>
+  </si>
+  <si>
+    <t>ACN DOP DEP3</t>
+  </si>
+  <si>
+    <t>ACN DOP DEP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +529,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -665,7 +680,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,18 +727,28 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -732,7 +757,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,9 +769,18 @@
     <xf numFmtId="49" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -16810,7 +16844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16845,7 +16879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17030,12 +17064,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="83" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomLeft" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17050,7 +17084,7 @@
     <col min="8" max="8" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -17101,7 +17135,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
@@ -17159,95 +17193,95 @@
       <c r="W6" s="16"/>
     </row>
     <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="A7" s="26">
         <v>0</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="26">
         <v>1</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="26">
         <v>3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="26">
         <v>4</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="26">
         <v>5</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="26">
         <v>6</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
-    <row r="8" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:23" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="17" t="s">
@@ -17266,94 +17300,117 @@
         <v>18</v>
       </c>
       <c r="V8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="17" t="s">
+    </row>
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>32</v>
+      <c r="I9" s="24">
+        <v>18629</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>33</v>
+      <c r="J9" s="32" t="s">
+        <v>39</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
-        <v>34</v>
+      <c r="K9" s="32" t="s">
+        <v>44</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="29" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>42</v>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32" t="s">
+        <v>43</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="28" t="s">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>22</v>
+      <c r="R9" s="32"/>
+      <c r="S9" s="19">
+        <v>0.375</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
-        <v>23</v>
+      <c r="T9" s="37">
+        <v>0.70833333333333337</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28" t="s">
-        <v>43</v>
+      <c r="U9" s="38">
+        <v>40</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28" t="s">
+      <c r="V9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="28">
-        <v>40</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="28"/>
+      <c r="W9" s="32"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="H10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="24">
+        <v>18629</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="T10" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="U10" s="34">
+        <v>40</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="18"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
@@ -17362,22 +17419,44 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="H11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="24">
+        <v>18629</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="34"/>
+      <c r="S11" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="34">
+        <v>40</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="21"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
@@ -17385,23 +17464,45 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="24">
+        <v>18629</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="34"/>
+      <c r="S12" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="34">
+        <v>40</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="21"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
@@ -17410,289 +17511,352 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
+      <c r="A20" s="14"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -17762,15 +17926,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
-      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
-      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
-      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
@@ -17795,6 +17956,18 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="F66" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17826,19 +17999,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H12">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J12">
       <formula1>SetID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65:F59497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:F59500">
       <formula1>LISTEPROCESSUS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9 K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K12 Q9:Q12">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9:O12">
       <formula1>Location</formula1>
     </dataValidation>
   </dataValidations>
